--- a/public/upload/elections/2016/14_13.04.2016-03.05.2016.xlsx
+++ b/public/upload/elections/2016/14_13.04.2016-03.05.2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="390" windowWidth="14940" windowHeight="7275" tabRatio="954" activeTab="21"/>
+    <workbookView xWindow="120" yWindow="390" windowWidth="14940" windowHeight="7275" tabRatio="954" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ფორმა N1" sheetId="42" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ფორმა N2'!$A$1:$D$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$D$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N4'!$A$1:$D$90</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'ფორმა N5'!$A$1:$D$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'ფორმა N5'!$A$1:$D$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'ფორმა N5.1'!$A$1:$D$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ფორმა N7'!$A$1:$D$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'ფორმა N8'!$A$1:$J$21</definedName>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="492">
   <si>
     <t>პრემია</t>
   </si>
@@ -1829,6 +1829,9 @@
   </si>
   <si>
     <t>GE68BS00000</t>
+  </si>
+  <si>
+    <t>სხვა არაფულადი შემოსავლები (მათ შორის მოგება კურსთაშორისი სხვაობებიდან)</t>
   </si>
 </sst>
 </file>
@@ -4332,13 +4335,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>775607</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1318532</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4376,13 +4379,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2086495</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4827200</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14195,7 +14198,7 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -18799,7 +18802,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -18970,10 +18973,10 @@
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>473</v>
+        <v>86</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -18981,10 +18984,10 @@
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="100" t="s">
-        <v>475</v>
+        <v>71</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -18992,10 +18995,10 @@
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C16" s="110">
         <f>SUM(C17:C18)</f>
@@ -19009,10 +19012,10 @@
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -19020,10 +19023,10 @@
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="100" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -19031,10 +19034,10 @@
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="C19" s="110">
         <f>SUM(C20:C23)</f>
@@ -19048,21 +19051,21 @@
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="100" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="116"/>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -19070,10 +19073,10 @@
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -19081,10 +19084,10 @@
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -19092,32 +19095,32 @@
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C24" s="276"/>
       <c r="D24" s="8"/>
       <c r="E24" s="116"/>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91" t="s">
-        <v>239</v>
+      <c r="A25" s="91">
+        <v>1.2</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="116"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="90">
-        <v>1.2</v>
+      <c r="A26" s="90" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="C26" s="88">
         <f>SUM(C27,C35)</f>
@@ -19131,10 +19134,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="91" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C27" s="110">
         <f>SUM(C28:C30)</f>
@@ -19148,10 +19151,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="249" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="249" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -19159,10 +19162,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="249" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="B29" s="249" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -19170,72 +19173,46 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="249" t="s">
-        <v>427</v>
+        <v>33</v>
       </c>
       <c r="B30" s="249" t="s">
-        <v>298</v>
+        <v>491</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="116"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>473</v>
-      </c>
-      <c r="C31" s="110">
-        <f>SUM(C32:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="110">
-        <f>SUM(D32:D34)</f>
-        <v>0</v>
-      </c>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
       <c r="E31" s="116"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="249" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="249" t="s">
-        <v>476</v>
-      </c>
+      <c r="A32" s="249"/>
+      <c r="B32" s="249"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="116"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="249" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="249" t="s">
-        <v>477</v>
-      </c>
+      <c r="A33" s="249"/>
+      <c r="B33" s="249"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="116"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="249" t="s">
-        <v>269</v>
-      </c>
-      <c r="B34" s="249" t="s">
-        <v>478</v>
-      </c>
+      <c r="A34" s="249"/>
+      <c r="B34" s="249"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="116"/>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="262" t="s">
-        <v>424</v>
-      </c>
+      <c r="A35" s="91"/>
+      <c r="B35" s="262"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
@@ -20351,10 +20328,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20453,11 +20430,11 @@
         <v>57</v>
       </c>
       <c r="C9" s="403">
-        <f>SUM(C10,C13,C53,C56,C57,C58,C75)</f>
+        <f>SUM(C10,C13,C52,C55,C56,C57,C74)</f>
         <v>120.59</v>
       </c>
       <c r="D9" s="403">
-        <f>SUM(D10,D13,D53,D56,D57,D58,D64,D71,D72)</f>
+        <f>SUM(D10,D13,D52,D55,D56,D57,D63,D70,D71)</f>
         <v>120.59</v>
       </c>
       <c r="E9" s="158"/>
@@ -20509,11 +20486,11 @@
         <v>60</v>
       </c>
       <c r="C13" s="405">
-        <f>SUM(C14,C17,C29:C32,C35,C36,C43,C44,C45,C46,C47,C51,C52)</f>
+        <f>SUM(C14,C17,C29:C32,C35,C36,C42,C43,C44,C45,C46,C50,C51)</f>
         <v>120.59</v>
       </c>
       <c r="D13" s="405">
-        <f>SUM(D14,D17,D29:D32,D35,D36,D43,D44,D45,D46,D47,D51,D52)</f>
+        <f>SUM(D14,D17,D29:D32,D35,D36,D42,D43,D44,D45,D46,D50,D51)</f>
         <v>120.59</v>
       </c>
       <c r="E13" s="156"/>
@@ -20812,11 +20789,11 @@
         <v>340</v>
       </c>
       <c r="C36" s="86">
-        <f>SUM(C37:C42)</f>
+        <f>SUM(C37:C41)</f>
         <v>0</v>
       </c>
       <c r="D36" s="86">
-        <f>SUM(D37:D42)</f>
+        <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
       <c r="E36" s="156"/>
@@ -20870,29 +20847,29 @@
         <v>347</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>466</v>
+        <v>343</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="35"/>
       <c r="E41" s="156"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>343</v>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C42" s="34"/>
       <c r="D42" s="35"/>
       <c r="E42" s="156"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="35"/>
@@ -20900,10 +20877,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="34"/>
       <c r="D44" s="35"/>
@@ -20911,10 +20888,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="35"/>
@@ -20922,38 +20899,38 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
+        <v>284</v>
+      </c>
+      <c r="C46" s="86">
+        <f>SUM(C47:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="86">
+        <f>SUM(D47:D49)</f>
+        <v>0</v>
+      </c>
       <c r="E46" s="156"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="86">
-        <f>SUM(C48:C50)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="86">
-        <f>SUM(D48:D50)</f>
-        <v>0</v>
-      </c>
+      <c r="A47" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" s="100" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="156"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C48" s="34"/>
       <c r="D48" s="35"/>
@@ -20961,82 +20938,82 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="100" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B49" s="100" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="35"/>
       <c r="E49" s="156"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="100" t="s">
-        <v>356</v>
-      </c>
-      <c r="B50" s="100" t="s">
-        <v>357</v>
+    <row r="50" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="35"/>
       <c r="E50" s="156"/>
     </row>
-    <row r="51" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C51" s="34"/>
       <c r="D51" s="35"/>
       <c r="E51" s="156"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="87">
+        <f>SUM(C53:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="87">
+        <f>SUM(D53:D54)</f>
+        <v>0</v>
+      </c>
       <c r="E52" s="156"/>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="B53" s="90" t="s">
-        <v>391</v>
-      </c>
-      <c r="C53" s="87">
-        <f>SUM(C54:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="87">
-        <f>SUM(D54:D55)</f>
-        <v>0</v>
-      </c>
+      <c r="A53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="156"/>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="34"/>
       <c r="D54" s="35"/>
       <c r="E54" s="156"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>47</v>
+      <c r="A55" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="C55" s="34"/>
       <c r="D55" s="35"/>
@@ -21044,270 +21021,267 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="156"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="41"/>
+        <v>1.6</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="87">
+        <f>SUM(C58:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="87">
+        <f>SUM(D58:D62)</f>
+        <v>0</v>
+      </c>
       <c r="E57" s="156"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="87">
-        <f>SUM(C59:C63)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="87">
-        <f>SUM(D59:D63)</f>
-        <v>0</v>
-      </c>
+      <c r="A58" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="41"/>
       <c r="E58" s="156"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="41"/>
       <c r="E59" s="156"/>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="41"/>
       <c r="D60" s="41"/>
       <c r="E60" s="156"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="C61" s="38"/>
       <c r="D61" s="41"/>
       <c r="E61" s="156"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>27</v>
+        <v>323</v>
+      </c>
+      <c r="B62" s="221" t="s">
+        <v>324</v>
       </c>
       <c r="C62" s="38"/>
-      <c r="D62" s="41"/>
+      <c r="D62" s="222"/>
       <c r="E62" s="156"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="B63" s="221" t="s">
-        <v>324</v>
-      </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="222"/>
+      <c r="A63" s="13">
+        <v>2</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="281"/>
+      <c r="D63" s="121">
+        <f>SUM(D64:D69)</f>
+        <v>0</v>
+      </c>
       <c r="E63" s="156"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
-        <v>2</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>95</v>
+      <c r="A64" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C64" s="281"/>
-      <c r="D64" s="121">
-        <f>SUM(D65:D70)</f>
-        <v>0</v>
-      </c>
+      <c r="D64" s="43"/>
       <c r="E64" s="156"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="281"/>
-      <c r="D65" s="43"/>
+        <v>93</v>
+      </c>
+      <c r="C65" s="283"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="156"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="283"/>
       <c r="D66" s="44"/>
       <c r="E66" s="156"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" s="283"/>
       <c r="D67" s="44"/>
       <c r="E67" s="156"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C68" s="283"/>
       <c r="D68" s="44"/>
       <c r="E68" s="156"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="283"/>
       <c r="D69" s="44"/>
       <c r="E69" s="156"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="B70" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="283"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="156"/>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>3</v>
+      </c>
+      <c r="B70" s="279" t="s">
+        <v>423</v>
+      </c>
+      <c r="C70" s="282"/>
+      <c r="D70" s="280"/>
+      <c r="E70" s="108"/>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
-        <v>3</v>
-      </c>
-      <c r="B71" s="279" t="s">
-        <v>423</v>
-      </c>
-      <c r="C71" s="282"/>
-      <c r="D71" s="280"/>
+        <v>4</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="282">
+        <f>SUM(C72:C73)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="88">
+        <f>SUM(D72:D73)</f>
+        <v>0</v>
+      </c>
       <c r="E71" s="108"/>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
-        <v>4</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="282">
-        <f>SUM(C73:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="88">
-        <f>SUM(D73:D74)</f>
-        <v>0</v>
-      </c>
+    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="108"/>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="108"/>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>242</v>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>5</v>
+      </c>
+      <c r="B74" s="277" t="s">
+        <v>267</v>
       </c>
       <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="108"/>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
-        <v>5</v>
-      </c>
-      <c r="B75" s="277" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="88"/>
+    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="377"/>
+      <c r="B75" s="377"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="108"/>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="377"/>
-      <c r="B76" s="377"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="422" t="s">
+        <v>468</v>
+      </c>
+      <c r="B76" s="422"/>
+      <c r="C76" s="422"/>
+      <c r="D76" s="422"/>
       <c r="E76" s="108"/>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="422" t="s">
-        <v>468</v>
-      </c>
-      <c r="B77" s="422"/>
-      <c r="C77" s="422"/>
-      <c r="D77" s="422"/>
+    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="377"/>
+      <c r="B77" s="377"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="108"/>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="377"/>
-      <c r="B78" s="377"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="108"/>
-    </row>
-    <row r="79" spans="1:5" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="72" t="s">
+    <row r="78" spans="1:9" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
     </row>
     <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="12"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
@@ -21315,6 +21289,10 @@
       <c r="I81"/>
     </row>
     <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82" s="45" t="s">
+        <v>469</v>
+      </c>
       <c r="D82" s="12"/>
       <c r="E82"/>
       <c r="F82"/>
@@ -21324,58 +21302,46 @@
     </row>
     <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83"/>
-      <c r="B83" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="D83" s="12"/>
+      <c r="B83" s="423" t="s">
+        <v>470</v>
+      </c>
+      <c r="C83" s="423"/>
+      <c r="D83" s="423"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84"/>
-      <c r="B84" s="423" t="s">
-        <v>470</v>
-      </c>
-      <c r="C84" s="423"/>
-      <c r="D84" s="423"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="68" t="s">
+    <row r="84" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="68" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="423" t="s">
+    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
+      <c r="B85" s="423" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="423"/>
-      <c r="D86" s="423"/>
-    </row>
+      <c r="C85" s="423"/>
+      <c r="D85" s="423"/>
+    </row>
+    <row r="86" spans="1:9" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="87" spans="1:9" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:9" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B85:D85"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="57" max="3" man="1"/>
+    <brk id="56" max="3" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
